--- a/Arsitektur Sistem.xlsx
+++ b/Arsitektur Sistem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B0F7D-24F6-4EBD-BEE0-704D9792981F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{View} ID FORM" sheetId="1" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <sheet name="{Controller} aksiTambahData" sheetId="4" r:id="rId6"/>
     <sheet name="{Controller} aksiAmbilData" sheetId="5" r:id="rId7"/>
     <sheet name="{Controller} aksiUpdateData" sheetId="6" r:id="rId8"/>
+    <sheet name="Penamaan Variabel" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="59">
   <si>
     <t>NAMA ID</t>
   </si>
@@ -154,12 +156,66 @@
   </si>
   <si>
     <t>satuData_ss</t>
+  </si>
+  <si>
+    <t>id_form_uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Kompetensi </t>
+  </si>
+  <si>
+    <t>Unit Kompetensi</t>
+  </si>
+  <si>
+    <t>id_modal_tabel_ss</t>
+  </si>
+  <si>
+    <t>id_modal_form_uk</t>
+  </si>
+  <si>
+    <t>datatabel_uk</t>
+  </si>
+  <si>
+    <t>datatabel_modal_ss</t>
+  </si>
+  <si>
+    <t>form_uk</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Multiple Select</t>
+  </si>
+  <si>
+    <t>Select2</t>
+  </si>
+  <si>
+    <t>multipleSelect_</t>
+  </si>
+  <si>
+    <t>dropdown_</t>
+  </si>
+  <si>
+    <t>select2_</t>
+  </si>
+  <si>
+    <t>satuData_uk</t>
+  </si>
+  <si>
+    <t>is_uk_kode_valid</t>
+  </si>
+  <si>
+    <t>select2</t>
+  </si>
+  <si>
+    <t>select2_ss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,14 +535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,20 +600,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,20 +715,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,6 +830,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -748,14 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,20 +957,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,20 +1039,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -965,20 +1109,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,20 +1308,78 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,6 +1436,60 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9DCA52-93AB-4C6F-B0A3-631DE425E0B5}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arsitektur Sistem.xlsx
+++ b/Arsitektur Sistem.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B0F7D-24F6-4EBD-BEE0-704D9792981F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7068E-0CF5-4064-BB1D-DE7A3D502748}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{View} ID FORM" sheetId="1" r:id="rId1"/>
     <sheet name="{View} ID TABEL" sheetId="2" r:id="rId2"/>
     <sheet name="{View} ID MODAL" sheetId="3" r:id="rId3"/>
-    <sheet name="{Model} DATATABLES" sheetId="8" r:id="rId4"/>
-    <sheet name="{Model} FORM" sheetId="9" r:id="rId5"/>
-    <sheet name="{Controller} aksiTambahData" sheetId="4" r:id="rId6"/>
-    <sheet name="{Controller} aksiAmbilData" sheetId="5" r:id="rId7"/>
-    <sheet name="{Controller} aksiUpdateData" sheetId="6" r:id="rId8"/>
-    <sheet name="Penamaan Variabel" sheetId="10" r:id="rId9"/>
+    <sheet name="{View} ID PAGE" sheetId="20" r:id="rId4"/>
+    <sheet name="{Model} DATATABLES" sheetId="8" r:id="rId5"/>
+    <sheet name="{Model} FORM" sheetId="9" r:id="rId6"/>
+    <sheet name="{Controller} aksiTambahData" sheetId="4" r:id="rId7"/>
+    <sheet name="{Controller} aksiAmbilData" sheetId="5" r:id="rId8"/>
+    <sheet name="{Controller} aksiUpdateData" sheetId="6" r:id="rId9"/>
+    <sheet name="Penamaan Variabel" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
   <si>
     <t>NAMA ID</t>
   </si>
@@ -210,13 +211,40 @@
   </si>
   <si>
     <t>select2_ss</t>
+  </si>
+  <si>
+    <t>Elemen Kompetensi</t>
+  </si>
+  <si>
+    <t>id_form_ek_search</t>
+  </si>
+  <si>
+    <t>id_form_ek</t>
+  </si>
+  <si>
+    <t>id_tabel_ek</t>
+  </si>
+  <si>
+    <t>id_modal_form_ek</t>
+  </si>
+  <si>
+    <t>datatabel_ek</t>
+  </si>
+  <si>
+    <t>form_ek</t>
+  </si>
+  <si>
+    <t>satuData_ek</t>
+  </si>
+  <si>
+    <t>id_page_ek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +256,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,9 +287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +574,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +606,7 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -582,7 +617,7 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -593,7 +628,7 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
@@ -604,11 +639,77 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9DCA52-93AB-4C6F-B0A3-631DE425E0B5}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +722,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,6 +838,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -747,10 +859,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,6 +964,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -859,14 +982,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470EA350-BDD5-4D2D-8394-B53EFA6875DA}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,20 +1167,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,20 +1249,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,20 +1330,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,19 +1587,41 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1447,47 +1690,15 @@
         <v>12</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9DCA52-93AB-4C6F-B0A3-631DE425E0B5}">
-  <dimension ref="B2:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Arsitektur Sistem.xlsx
+++ b/Arsitektur Sistem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7068E-0CF5-4064-BB1D-DE7A3D502748}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F9333-0DE7-4CB3-BCCE-73B9F36A8B1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{View} ID FORM" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="{Controller} aksiUpdateData" sheetId="6" r:id="rId9"/>
     <sheet name="Penamaan Variabel" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="77">
   <si>
     <t>NAMA ID</t>
   </si>
@@ -238,6 +244,33 @@
   </si>
   <si>
     <t>id_page_ek</t>
+  </si>
+  <si>
+    <t>Kriteria Unjuk Kerja</t>
+  </si>
+  <si>
+    <t>id_form_kuk_search</t>
+  </si>
+  <si>
+    <t>id_form_kuk</t>
+  </si>
+  <si>
+    <t>id_tabel_kuk</t>
+  </si>
+  <si>
+    <t>id_modal_form_kuk</t>
+  </si>
+  <si>
+    <t>id_page_kuk</t>
+  </si>
+  <si>
+    <t>datatabel_kuk</t>
+  </si>
+  <si>
+    <t>form_kuk</t>
+  </si>
+  <si>
+    <t>satuData_kuk</t>
   </si>
 </sst>
 </file>
@@ -574,10 +607,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,6 +701,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -679,7 +734,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,10 +777,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,6 +904,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -859,10 +925,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,6 +1041,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -988,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,7 +1103,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
@@ -1051,10 +1136,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,6 +1263,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1188,10 +1284,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,6 +1356,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1270,17 +1377,17 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1338,6 +1445,17 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1351,10 +1469,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,6 +1727,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1619,10 +1759,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,6 +1841,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arsitektur Sistem.xlsx
+++ b/Arsitektur Sistem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lsp_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F9333-0DE7-4CB3-BCCE-73B9F36A8B1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B32D6E-7305-4817-9485-C672CE3378B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="85">
   <si>
     <t>NAMA ID</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>satuData_kuk</t>
+  </si>
+  <si>
+    <t>id_form_bukti</t>
+  </si>
+  <si>
+    <t>Bukti Kelengkapan</t>
+  </si>
+  <si>
+    <t>Asesi</t>
+  </si>
+  <si>
+    <t>id_tabel_bukti</t>
+  </si>
+  <si>
+    <t>id_modal_form_bukti</t>
+  </si>
+  <si>
+    <t>datatabel_bukti</t>
+  </si>
+  <si>
+    <t>form_bukti</t>
+  </si>
+  <si>
+    <t>satuData_bukti</t>
   </si>
 </sst>
 </file>
@@ -607,10 +631,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,6 +745,17 @@
       </c>
       <c r="D9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +812,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,6 +950,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,10 +971,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,6 +1096,17 @@
       </c>
       <c r="D10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1123,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,10 +1193,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,6 +1331,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1284,10 +1352,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1367,6 +1435,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1377,10 +1456,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,6 +1538,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1469,10 +1559,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1749,6 +1839,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1759,10 +1871,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1852,6 +1964,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
